--- a/Mifos Automation Excels/Loan Product/3016-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-%DISB-AMT-Regular-CASH-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/3016-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-%DISB-AMT-Regular-CASH-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>charges</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>3016-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-%DISB-AMT-Regular-CASH</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -676,10 +676,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -823,12 +823,12 @@
         <v>32</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="15">
         <v>1</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="27" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="16">
         <v>42005</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="8">
         <v>10000</v>
@@ -868,15 +868,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>17</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>17</v>
@@ -972,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -984,10 +984,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
